--- a/biology/Zoologie/Bothrops_taeniata/Bothrops_taeniata.xlsx
+++ b/biology/Zoologie/Bothrops_taeniata/Bothrops_taeniata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bothrops taeniata est une espèce de serpents de la famille des Viperidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bothrops taeniata est une espèce de serpents de la famille des Viperidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 au Brésil ;
 en Colombie ;
 en Équateur ;
@@ -549,9 +563,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un serpent venimeux vivipare[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un serpent venimeux vivipare.
 </t>
         </is>
       </c>
@@ -580,9 +596,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (30 août 2011)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (30 août 2011) :
 Bothrops taeniata taeniata Wagler, 1824
 Bothrops taeniata lichenosa (Roze, 1958)</t>
         </is>
@@ -612,7 +630,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Wagler, 1824 : Serpentum Brasiliensium species novae, ou histoire naturelle des espèces nouvelles de serpens. in Jean de Spix, Animalia nova sive species novae, p. 1-75 (texte intégral).
 Duméril, Bibron &amp; Duméril, 1854 : Erpétologie générale ou histoire naturelle complète des reptiles. Tome septième. Deuxième partie, p. 781-1536 (texte intégral).
